--- a/src/cab/perm/falcon.epic.modeling.entity.xlsx
+++ b/src/cab/perm/falcon.epic.modeling.entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/rule/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F7C1B1-7511-1C4B-A45D-F6475FFD6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA55FF-97F7-0341-B627-0BA5687A71EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63620" yWindow="-13660" windowWidth="49760" windowHeight="30860" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -58,6 +58,9 @@
     <t>sigma</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>角色ID</t>
   </si>
   <si>
@@ -161,9 +164,6 @@
   </si>
   <si>
     <t>41156a30-e1d1-48c1-bc57-b65a61078870</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -720,94 +720,94 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -831,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -847,13 +847,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>5</v>
@@ -862,22 +862,22 @@
         <v>4</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,10 +885,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -897,22 +897,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
